--- a/Liste.xlsx
+++ b/Liste.xlsx
@@ -2115,10 +2115,10 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2139,13 +2139,13 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2163,13 +2163,13 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2187,13 +2187,13 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2211,13 +2211,13 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2235,13 +2235,13 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -2259,13 +2259,13 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -2283,13 +2283,13 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -2307,13 +2307,13 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -2331,13 +2331,13 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -2355,13 +2355,13 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2379,13 +2379,13 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2403,13 +2403,13 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -2427,13 +2427,13 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2451,13 +2451,13 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2499,13 +2499,13 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J18" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2523,13 +2523,13 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -2571,13 +2571,13 @@
         </is>
       </c>
       <c r="I21" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -2595,13 +2595,13 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2619,13 +2619,13 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2643,13 +2643,13 @@
         </is>
       </c>
       <c r="I24" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2667,13 +2667,13 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="I26" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         </is>
       </c>
       <c r="I27" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2739,13 +2739,13 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2763,13 +2763,13 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2787,13 +2787,13 @@
         </is>
       </c>
       <c r="I30" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2811,13 +2811,13 @@
         </is>
       </c>
       <c r="I31" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -2835,13 +2835,13 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -2883,13 +2883,13 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -2907,13 +2907,13 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2979,13 +2979,13 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3003,13 +3003,13 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -3027,13 +3027,13 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3051,13 +3051,13 @@
         </is>
       </c>
       <c r="I41" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J42" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3099,13 +3099,13 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J43" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -3123,13 +3123,13 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J44" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K44" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -3147,13 +3147,13 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46">
@@ -3171,13 +3171,13 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -3195,13 +3195,13 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -3219,13 +3219,13 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -3243,13 +3243,13 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -3267,13 +3267,13 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -3291,13 +3291,13 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
@@ -3315,13 +3315,13 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="I53" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -3363,10 +3363,10 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -3387,13 +3387,13 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
@@ -3411,10 +3411,10 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3459,13 +3459,13 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J58" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59">
@@ -3483,13 +3483,13 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3507,13 +3507,13 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="K60" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -3531,13 +3531,13 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="J61" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3555,13 +3555,13 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
